--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_1_site.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116FADA2-9633-4374-A471-B0BEA74B9022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09771D1C-E2E9-448F-A75B-7E4F3A61F7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="211">
   <si>
     <t>form_title</t>
   </si>
@@ -47,9 +47,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
   </si>
   <si>
     <t>csps_list</t>
-  </si>
-  <si>
-    <t>village_list = ${c_village}</t>
   </si>
   <si>
     <t>SELOGHIN</t>
@@ -1271,11 +1265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1296,54 +1290,54 @@
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1351,73 +1345,73 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1425,18 +1419,18 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1444,21 +1438,21 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1466,10 +1460,10 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1485,23 +1479,23 @@
     </row>
     <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1517,50 +1511,50 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>97</v>
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1577,45 +1571,45 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1632,52 +1626,52 @@
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1693,35 +1687,35 @@
     </row>
     <row r="20" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1733,18 +1727,18 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1765,8 +1759,8 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1782,72 +1776,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -1859,25 +1853,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -1889,24 +1883,24 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1917,13 +1911,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -1935,16 +1929,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,326 +1949,326 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,562 +2276,562 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2855,9 +2849,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2865,11 +2859,10 @@
   <cols>
     <col min="1" max="1" width="55.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2877,30 +2870,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2">
-        <v>20220916</v>
-      </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB9B97-8CD6-477C-BF5A-531D8ED8746F}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S41"/>
     </sheetView>
   </sheetViews>
@@ -2927,49 +2914,49 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="P1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="S1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2977,46 +2964,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="H2" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3024,43 +3011,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>152</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3068,37 +3055,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3106,37 +3093,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T5" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -3144,37 +3131,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3182,37 +3169,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S7" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -3220,37 +3207,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -3258,37 +3245,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -3296,37 +3283,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -3334,37 +3321,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T11" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3372,37 +3359,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S12" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3410,37 +3397,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3448,37 +3435,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3486,37 +3473,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S15" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3524,37 +3511,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3562,37 +3549,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S17" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3600,37 +3587,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3638,37 +3625,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S19" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3676,37 +3663,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>152</v>
-      </c>
       <c r="S20" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3714,37 +3701,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T21" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T21" s="20" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3752,37 +3739,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S22" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -3790,31 +3777,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3822,31 +3809,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3854,31 +3841,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3886,31 +3873,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3918,31 +3905,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T27" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3950,31 +3937,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3982,31 +3969,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T29" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T29" s="20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -4014,31 +4001,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -4046,31 +4033,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S31" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T31" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -4078,31 +4065,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S32" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T32" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -4110,31 +4097,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S33" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -4142,31 +4129,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S34" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T34" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4174,31 +4161,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S35" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4206,31 +4193,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F36" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T36" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="S36" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T36" s="20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4238,31 +4225,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4270,31 +4257,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4302,31 +4289,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4334,31 +4321,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S40" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T40" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4366,31 +4353,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S41" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T41" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4481,8 +4468,8 @@
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_1_site.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_1_site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09771D1C-E2E9-448F-A75B-7E4F3A61F7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4CA11-78EB-4F9D-9DD3-4D854FFAF6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="198">
   <si>
     <t>form_title</t>
   </si>
@@ -80,9 +80,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>c_nom_CSPS</t>
   </si>
   <si>
-    <t>c_nom_grappe</t>
-  </si>
-  <si>
     <t>c_gps</t>
   </si>
   <si>
@@ -227,15 +221,6 @@
     <t>commune_list = ${c_commune}</t>
   </si>
   <si>
-    <t>c_num_grappe</t>
-  </si>
-  <si>
-    <t>. &gt; 0 and . &lt;= 50</t>
-  </si>
-  <si>
-    <t>Le numéro doit être entre 1 et 50</t>
-  </si>
-  <si>
     <t>c_ds</t>
   </si>
   <si>
@@ -251,27 +236,12 @@
     <t>ds_list</t>
   </si>
   <si>
-    <t>Sélectionnez le village ou secteur</t>
-  </si>
-  <si>
-    <t>Veuillez entrer le numéro de la Grappe</t>
-  </si>
-  <si>
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>Le nom est composé de: 'Numero de grappe'_'Nom du village'_'Code de la grappe'. Exemple: 2_Arrombissi_A005</t>
-  </si>
-  <si>
     <t>Allez à la question suivante</t>
   </si>
   <si>
-    <t>Le village ou secteur est-il dans la liste?</t>
-  </si>
-  <si>
-    <t>c_siteDansListe</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -287,36 +257,9 @@
     <t>Non</t>
   </si>
   <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>La liste planifiée à l'avance</t>
-  </si>
-  <si>
-    <t>c_nom_CSPS2</t>
-  </si>
-  <si>
-    <t>Veuillez écrire le nom du nouveau CSPS</t>
-  </si>
-  <si>
-    <t>veuillez écrire le nouveau village ou secteur</t>
-  </si>
-  <si>
-    <t>${c_siteDansListe} = 'Yes'</t>
-  </si>
-  <si>
     <t>Sélectionnez le nom du CSPS</t>
   </si>
   <si>
-    <t>${c_siteDansListe} = 'No'</t>
-  </si>
-  <si>
-    <t>Nom de la grappe :</t>
-  </si>
-  <si>
-    <t>c_village</t>
-  </si>
-  <si>
     <t>select_one village_list</t>
   </si>
   <si>
@@ -332,12 +275,6 @@
     <t>SELOGHIN</t>
   </si>
   <si>
-    <t>c_village2</t>
-  </si>
-  <si>
-    <t>if(${c_siteDansListe} = 'Yes', concat(${c_num_grappe},'_',${c_village}), concat(${c_num_grappe},'_',${c_village2}))</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -668,10 +605,34 @@
     <t>1327130</t>
   </si>
   <si>
-    <t>bf_lf_tas1_202304_1_site</t>
-  </si>
-  <si>
-    <t>(Avril 2023) Burkina Faso TAS FL - 1. Formulaire Village</t>
+    <t>Code ID</t>
+  </si>
+  <si>
+    <t>code_list</t>
+  </si>
+  <si>
+    <t>c_site</t>
+  </si>
+  <si>
+    <t>Sélectionnez l'école</t>
+  </si>
+  <si>
+    <t>c_code_site</t>
+  </si>
+  <si>
+    <t>select_one code_list</t>
+  </si>
+  <si>
+    <t>village_list = ${c_site}</t>
+  </si>
+  <si>
+    <t>(Avril 2023) Burkina Faso TAS FL - 1. Formulaire Village V2</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_1_site_v2</t>
+  </si>
+  <si>
+    <t>Sélectionnez le code de l'école</t>
   </si>
 </sst>
 </file>
@@ -902,9 +863,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -920,13 +878,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1263,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1308,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -1320,21 +1309,21 @@
         <v>10</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -1351,16 +1340,16 @@
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1370,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -1378,16 +1367,16 @@
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1397,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
@@ -1405,13 +1394,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1424,13 +1413,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1441,18 +1430,18 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1463,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1477,19 +1466,17 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>76</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1497,257 +1484,128 @@
       <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>12</v>
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
+      <c r="J16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1785,63 +1643,63 @@
         <v>4</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -1853,25 +1711,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -1883,24 +1741,24 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,13 +1769,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -1929,16 +1787,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,326 +1807,326 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,562 +2134,1122 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
         <v>94</v>
       </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84">
+        <v>102</v>
+      </c>
+      <c r="C84">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85">
+        <v>103</v>
+      </c>
+      <c r="C85">
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86">
+        <v>104</v>
+      </c>
+      <c r="C86">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>105</v>
+      </c>
+      <c r="G87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88">
+        <v>106</v>
+      </c>
+      <c r="C88">
+        <v>106</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89">
+        <v>107</v>
+      </c>
+      <c r="C89">
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90">
+        <v>108</v>
+      </c>
+      <c r="C90">
+        <v>108</v>
+      </c>
+      <c r="G90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91">
+        <v>109</v>
+      </c>
+      <c r="C91">
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92">
+        <v>110</v>
+      </c>
+      <c r="C92">
+        <v>110</v>
+      </c>
+      <c r="G92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93">
+        <v>111</v>
+      </c>
+      <c r="C93">
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94">
+        <v>112</v>
+      </c>
+      <c r="C94">
+        <v>112</v>
+      </c>
+      <c r="G94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>113</v>
+      </c>
+      <c r="C95">
+        <v>113</v>
+      </c>
+      <c r="G95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96">
+        <v>114</v>
+      </c>
+      <c r="C96">
+        <v>114</v>
+      </c>
+      <c r="G96" t="s">
         <v>94</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97">
+        <v>115</v>
+      </c>
+      <c r="C97">
+        <v>115</v>
+      </c>
+      <c r="G97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98">
+        <v>116</v>
+      </c>
+      <c r="C98">
+        <v>116</v>
+      </c>
+      <c r="G98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99">
+        <v>117</v>
+      </c>
+      <c r="C99">
+        <v>117</v>
+      </c>
+      <c r="G99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100">
+        <v>118</v>
+      </c>
+      <c r="C100">
+        <v>118</v>
+      </c>
+      <c r="G100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101">
+        <v>119</v>
+      </c>
+      <c r="C101">
+        <v>119</v>
+      </c>
+      <c r="G101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102">
+        <v>120</v>
+      </c>
+      <c r="C102">
+        <v>120</v>
+      </c>
+      <c r="G102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103">
+        <v>121</v>
+      </c>
+      <c r="C103">
+        <v>121</v>
+      </c>
+      <c r="G103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104">
+        <v>122</v>
+      </c>
+      <c r="C104">
+        <v>122</v>
+      </c>
+      <c r="G104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105">
+        <v>123</v>
+      </c>
+      <c r="C105">
+        <v>123</v>
+      </c>
+      <c r="G105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106">
+        <v>124</v>
+      </c>
+      <c r="C106">
+        <v>124</v>
+      </c>
+      <c r="G106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107">
+        <v>125</v>
+      </c>
+      <c r="C107">
+        <v>125</v>
+      </c>
+      <c r="G107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108">
         <v>126</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C108">
         <v>126</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109">
+        <v>127</v>
+      </c>
+      <c r="C109">
+        <v>127</v>
+      </c>
+      <c r="G109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110">
+        <v>128</v>
+      </c>
+      <c r="C110">
+        <v>128</v>
+      </c>
+      <c r="G110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111">
+        <v>129</v>
+      </c>
+      <c r="C111">
+        <v>129</v>
+      </c>
+      <c r="G111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112">
+        <v>130</v>
+      </c>
+      <c r="C112">
+        <v>130</v>
+      </c>
+      <c r="G112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113">
+        <v>131</v>
+      </c>
+      <c r="C113">
+        <v>131</v>
+      </c>
+      <c r="G113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114">
+        <v>132</v>
+      </c>
+      <c r="C114">
+        <v>132</v>
+      </c>
+      <c r="G114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115">
+        <v>133</v>
+      </c>
+      <c r="C115">
+        <v>133</v>
+      </c>
+      <c r="G115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116">
+        <v>134</v>
+      </c>
+      <c r="C116">
+        <v>134</v>
+      </c>
+      <c r="G116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117">
+        <v>135</v>
+      </c>
+      <c r="C117">
+        <v>135</v>
+      </c>
+      <c r="G117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118">
+        <v>136</v>
+      </c>
+      <c r="C118">
+        <v>136</v>
+      </c>
+      <c r="G118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119">
+        <v>137</v>
+      </c>
+      <c r="C119">
+        <v>137</v>
+      </c>
+      <c r="G119" t="s">
         <v>117</v>
       </c>
-      <c r="C81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" t="s">
-        <v>108</v>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120">
+        <v>138</v>
+      </c>
+      <c r="C120">
+        <v>138</v>
+      </c>
+      <c r="G120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121">
+        <v>139</v>
+      </c>
+      <c r="C121">
+        <v>139</v>
+      </c>
+      <c r="G121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122">
+        <v>140</v>
+      </c>
+      <c r="C122">
+        <v>140</v>
+      </c>
+      <c r="G122" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +3270,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2870,21 +3288,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2897,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB9B97-8CD6-477C-BF5A-531D8ED8746F}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S41"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2910,1474 +3328,1598 @@
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="U3" s="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" s="25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="B6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="B7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="25">
         <v>107</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="19">
         <v>110</v>
       </c>
-      <c r="T11" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="U12" s="25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="B13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" s="19">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U16" s="25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T17" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="U17" s="19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S19" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" s="19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="S20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T20" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" s="25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="B21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T21" s="20" t="s">
+      <c r="H21" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U22" s="25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="19">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="S24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="S25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T25" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="U25" s="19">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="U26" s="25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S27" s="20" t="s">
+      <c r="B27" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="T27" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="U28" s="25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T29" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U29" s="19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="S30" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="S30" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U30" s="25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="S31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T31" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="U31" s="19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="B32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="T32" s="22" t="s">
+      <c r="G32" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H32" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="U32" s="25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="S33" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T33" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="U33" s="19">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="S34" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T34" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="U34" s="25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="S35" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T35" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S35" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="U35" s="19">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="S36" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T36" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="S36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="U36" s="25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="S37" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T37" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="S37" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="U37" s="19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="S38" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T38" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="U38" s="25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="S39" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T39" s="20" t="s">
+      <c r="B39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G39" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="U39" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="S40" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T40" s="20" t="s">
+      <c r="B40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="U40" s="25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="S41" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T41" s="20" t="s">
-        <v>117</v>
+      <c r="B41" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="U41" s="19">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4386,10 +4928,10 @@
     <sortCondition ref="T2:T42"/>
   </sortState>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:H1">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4403,7 +4945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4417,7 +4959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4431,10 +4973,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q1">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4448,10 +4990,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40:Q1048576 Q1:Q22">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:T1">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="S1:U1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4464,10 +5006,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T41">
+  <conditionalFormatting sqref="T1:T41 U2 U4 U6 U8 U10 U12 U14 U16 U18 U20 U22 U24 U26 U28 U30 U32 U34 U36 U38 U40">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576 U2 U4 U6 U8 U10 U12 U14 U16 U18 U20 U22 U24 U26 U28 U30 U32 U34 U36 U38 U40">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
+  <conditionalFormatting sqref="U1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -4528,7 +5077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S1:T1</xm:sqref>
+          <xm:sqref>S1:U1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_1_site.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_1_site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4CA11-78EB-4F9D-9DD3-4D854FFAF6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEDE768-BC58-4A33-B579-0D60C0235B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="159">
   <si>
     <t>form_title</t>
   </si>
@@ -416,18 +416,12 @@
     <t>SOIBIRINA</t>
   </si>
   <si>
-    <t>AVISO</t>
-  </si>
-  <si>
     <t>MIFTAHOU ELILM</t>
   </si>
   <si>
     <t>BOGODOGO</t>
   </si>
   <si>
-    <t>GONSÉ</t>
-  </si>
-  <si>
     <t>TANGHIN</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>TANSOBINTENGA</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>TANGHIN A</t>
   </si>
   <si>
@@ -482,132 +473,6 @@
     <t>SONG-TAABA EVANGELIQUE</t>
   </si>
   <si>
-    <t>ABDOUL DRAME BOL OF</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>4018</t>
-  </si>
-  <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>8065</t>
-  </si>
-  <si>
-    <t>1221479</t>
-  </si>
-  <si>
-    <t>19977</t>
-  </si>
-  <si>
-    <t>15251</t>
-  </si>
-  <si>
-    <t>1251</t>
-  </si>
-  <si>
-    <t>17464</t>
-  </si>
-  <si>
-    <t>19423</t>
-  </si>
-  <si>
-    <t>1327766</t>
-  </si>
-  <si>
-    <t>1322374</t>
-  </si>
-  <si>
-    <t>4040</t>
-  </si>
-  <si>
-    <t>1322278</t>
-  </si>
-  <si>
-    <t>1322352</t>
-  </si>
-  <si>
-    <t>14226</t>
-  </si>
-  <si>
-    <t>1247</t>
-  </si>
-  <si>
-    <t>1325094</t>
-  </si>
-  <si>
-    <t>18861</t>
-  </si>
-  <si>
-    <t>15278</t>
-  </si>
-  <si>
-    <t>1326896</t>
-  </si>
-  <si>
-    <t>1326946</t>
-  </si>
-  <si>
-    <t>1326995</t>
-  </si>
-  <si>
-    <t>1323946</t>
-  </si>
-  <si>
-    <t>1323974</t>
-  </si>
-  <si>
-    <t>1327885</t>
-  </si>
-  <si>
-    <t>1327903</t>
-  </si>
-  <si>
-    <t>1327920</t>
-  </si>
-  <si>
-    <t>8084</t>
-  </si>
-  <si>
-    <t>1329412</t>
-  </si>
-  <si>
-    <t>1329309</t>
-  </si>
-  <si>
-    <t>1325160</t>
-  </si>
-  <si>
-    <t>9692</t>
-  </si>
-  <si>
-    <t>15276</t>
-  </si>
-  <si>
-    <t>21012</t>
-  </si>
-  <si>
-    <t>1323967</t>
-  </si>
-  <si>
-    <t>1325159</t>
-  </si>
-  <si>
-    <t>1327130</t>
-  </si>
-  <si>
-    <t>Code ID</t>
-  </si>
-  <si>
     <t>code_list</t>
   </si>
   <si>
@@ -626,13 +491,31 @@
     <t>village_list = ${c_site}</t>
   </si>
   <si>
-    <t>(Avril 2023) Burkina Faso TAS FL - 1. Formulaire Village V2</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202304_1_site_v2</t>
-  </si>
-  <si>
     <t>Sélectionnez le code de l'école</t>
+  </si>
+  <si>
+    <t>(Avril 2023) Burkina Faso TAS FL - 1. Formulaire Village V2.1</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_1_site_v2_1</t>
+  </si>
+  <si>
+    <t>NIOKO 1</t>
+  </si>
+  <si>
+    <t>EDEN NIOKO 1</t>
+  </si>
+  <si>
+    <t>SINSINGUENE</t>
+  </si>
+  <si>
+    <t>TANSABLOGO</t>
+  </si>
+  <si>
+    <t>TAOSINE DINE KATAPISSI</t>
+  </si>
+  <si>
+    <t>csps_list = ${c_nom_CSPS}</t>
   </si>
 </sst>
 </file>
@@ -756,7 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +697,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -874,18 +757,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1258,7 +1172,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1493,10 +1407,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1507,18 +1421,18 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1529,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1614,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD122"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1546,7 @@
     <col min="7" max="7" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1651,11 +1565,14 @@
       <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1584,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1596,7 @@
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1608,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1703,13 +1620,13 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1721,7 +1638,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1733,13 +1650,13 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1750,7 +1667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -1761,45 +1678,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1817,7 +1734,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1749,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,10 +1771,10 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
         <v>89</v>
@@ -1882,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
         <v>89</v>
@@ -1896,10 +1813,10 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
         <v>89</v>
@@ -1910,10 +1827,10 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
         <v>89</v>
@@ -1924,10 +1841,10 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
         <v>89</v>
@@ -1938,10 +1855,10 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
         <v>89</v>
@@ -1952,10 +1869,10 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
         <v>89</v>
@@ -1966,13 +1883,13 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,13 +1897,13 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,10 +1911,10 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
@@ -2008,1253 +1925,1281 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>75</v>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
-      </c>
-      <c r="F77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="G81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85">
+        <v>1250</v>
+      </c>
+      <c r="C85">
+        <v>1250</v>
+      </c>
+      <c r="H85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86">
+        <v>1260</v>
+      </c>
+      <c r="C86">
+        <v>1260</v>
+      </c>
+      <c r="H86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87">
+        <v>1279</v>
+      </c>
+      <c r="C87">
+        <v>1279</v>
+      </c>
+      <c r="H87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88">
+        <v>4018</v>
+      </c>
+      <c r="C88">
+        <v>4018</v>
+      </c>
+      <c r="H88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89">
+        <v>1259</v>
+      </c>
+      <c r="C89">
+        <v>1259</v>
+      </c>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90">
+        <v>8065</v>
+      </c>
+      <c r="C90">
+        <v>8065</v>
+      </c>
+      <c r="H90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91">
+        <v>1221479</v>
+      </c>
+      <c r="C91">
+        <v>1221479</v>
+      </c>
+      <c r="H91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92">
+        <v>19977</v>
+      </c>
+      <c r="C92">
+        <v>19977</v>
+      </c>
+      <c r="H92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93">
+        <v>15251</v>
+      </c>
+      <c r="C93">
+        <v>15251</v>
+      </c>
+      <c r="H93" t="s">
         <v>96</v>
       </c>
-      <c r="C81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94">
+        <v>1251</v>
+      </c>
+      <c r="C94">
+        <v>1251</v>
+      </c>
+      <c r="H94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95">
+        <v>17464</v>
+      </c>
+      <c r="C95">
+        <v>17464</v>
+      </c>
+      <c r="H95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96">
+        <v>19423</v>
+      </c>
+      <c r="C96">
+        <v>19423</v>
+      </c>
+      <c r="H96" t="s">
         <v>101</v>
       </c>
-      <c r="C83">
-        <v>101</v>
-      </c>
-      <c r="G83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B84">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97">
+        <v>1327766</v>
+      </c>
+      <c r="C97">
+        <v>1327766</v>
+      </c>
+      <c r="H97" t="s">
         <v>102</v>
       </c>
-      <c r="C84">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98">
+        <v>1322374</v>
+      </c>
+      <c r="C98">
+        <v>1322374</v>
+      </c>
+      <c r="H98" t="s">
         <v>103</v>
       </c>
-      <c r="C85">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99">
+        <v>4040</v>
+      </c>
+      <c r="C99">
+        <v>4040</v>
+      </c>
+      <c r="H99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100">
+        <v>1322278</v>
+      </c>
+      <c r="C100">
+        <v>1322278</v>
+      </c>
+      <c r="H100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101">
+        <v>1322352</v>
+      </c>
+      <c r="C101">
+        <v>1322352</v>
+      </c>
+      <c r="H101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102">
+        <v>14226</v>
+      </c>
+      <c r="C102">
+        <v>14226</v>
+      </c>
+      <c r="H102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103">
+        <v>1247</v>
+      </c>
+      <c r="C103">
+        <v>1247</v>
+      </c>
+      <c r="H103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104">
+        <v>1325094</v>
+      </c>
+      <c r="C104">
+        <v>1325094</v>
+      </c>
+      <c r="H104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105">
+        <v>18861</v>
+      </c>
+      <c r="C105">
+        <v>18861</v>
+      </c>
+      <c r="H105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106">
+        <v>15278</v>
+      </c>
+      <c r="C106">
+        <v>15278</v>
+      </c>
+      <c r="H106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107">
+        <v>1326896</v>
+      </c>
+      <c r="C107">
+        <v>1326896</v>
+      </c>
+      <c r="H107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108">
+        <v>1326946</v>
+      </c>
+      <c r="C108">
+        <v>1326946</v>
+      </c>
+      <c r="H108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109">
+        <v>1326995</v>
+      </c>
+      <c r="C109">
+        <v>1326995</v>
+      </c>
+      <c r="H109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110">
+        <v>1323946</v>
+      </c>
+      <c r="C110">
+        <v>1323946</v>
+      </c>
+      <c r="H110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111">
+        <v>15276</v>
+      </c>
+      <c r="C111">
+        <v>15276</v>
+      </c>
+      <c r="H111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112">
+        <v>1327885</v>
+      </c>
+      <c r="C112">
+        <v>1327885</v>
+      </c>
+      <c r="H112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113">
+        <v>1327903</v>
+      </c>
+      <c r="C113">
+        <v>1327903</v>
+      </c>
+      <c r="H113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114">
+        <v>1327920</v>
+      </c>
+      <c r="C114">
+        <v>1327920</v>
+      </c>
+      <c r="H114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115">
+        <v>8084</v>
+      </c>
+      <c r="C115">
+        <v>8084</v>
+      </c>
+      <c r="H115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116">
+        <v>1329412</v>
+      </c>
+      <c r="C116">
+        <v>1329412</v>
+      </c>
+      <c r="H116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117">
+        <v>1329309</v>
+      </c>
+      <c r="C117">
+        <v>1329309</v>
+      </c>
+      <c r="H117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86">
-        <v>104</v>
-      </c>
-      <c r="C86">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87">
-        <v>105</v>
-      </c>
-      <c r="C87">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88">
-        <v>106</v>
-      </c>
-      <c r="C88">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89">
-        <v>107</v>
-      </c>
-      <c r="C89">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90">
-        <v>108</v>
-      </c>
-      <c r="C90">
-        <v>108</v>
-      </c>
-      <c r="G90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91">
-        <v>109</v>
-      </c>
-      <c r="C91">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B92">
-        <v>110</v>
-      </c>
-      <c r="C92">
-        <v>110</v>
-      </c>
-      <c r="G92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93">
-        <v>111</v>
-      </c>
-      <c r="C93">
-        <v>111</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94">
-        <v>112</v>
-      </c>
-      <c r="C94">
-        <v>112</v>
-      </c>
-      <c r="G94" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118">
+        <v>1325160</v>
+      </c>
+      <c r="C118">
+        <v>1325160</v>
+      </c>
+      <c r="H118" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95">
-        <v>113</v>
-      </c>
-      <c r="C95">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96">
-        <v>114</v>
-      </c>
-      <c r="C96">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97">
-        <v>115</v>
-      </c>
-      <c r="C97">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B98">
-        <v>116</v>
-      </c>
-      <c r="C98">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119">
+        <v>9692</v>
+      </c>
+      <c r="C119">
+        <v>9692</v>
+      </c>
+      <c r="H119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120">
+        <v>21012</v>
+      </c>
+      <c r="C120">
+        <v>21012</v>
+      </c>
+      <c r="H120" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99">
-        <v>117</v>
-      </c>
-      <c r="C99">
-        <v>117</v>
-      </c>
-      <c r="G99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100">
-        <v>118</v>
-      </c>
-      <c r="C100">
-        <v>118</v>
-      </c>
-      <c r="G100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B101">
-        <v>119</v>
-      </c>
-      <c r="C101">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B102">
-        <v>120</v>
-      </c>
-      <c r="C102">
-        <v>120</v>
-      </c>
-      <c r="G102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103">
-        <v>121</v>
-      </c>
-      <c r="C103">
-        <v>121</v>
-      </c>
-      <c r="G103" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121">
+        <v>1323967</v>
+      </c>
+      <c r="C121">
+        <v>1323967</v>
+      </c>
+      <c r="H121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122">
+        <v>1325159</v>
+      </c>
+      <c r="C122">
+        <v>1325159</v>
+      </c>
+      <c r="H122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B104">
-        <v>122</v>
-      </c>
-      <c r="C104">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105">
-        <v>123</v>
-      </c>
-      <c r="C105">
-        <v>123</v>
-      </c>
-      <c r="G105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B106">
-        <v>124</v>
-      </c>
-      <c r="C106">
-        <v>124</v>
-      </c>
-      <c r="G106" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B107">
-        <v>125</v>
-      </c>
-      <c r="C107">
-        <v>125</v>
-      </c>
-      <c r="G107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108">
-        <v>126</v>
-      </c>
-      <c r="C108">
-        <v>126</v>
-      </c>
-      <c r="G108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109">
-        <v>127</v>
-      </c>
-      <c r="C109">
-        <v>127</v>
-      </c>
-      <c r="G109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110">
-        <v>128</v>
-      </c>
-      <c r="C110">
-        <v>128</v>
-      </c>
-      <c r="G110" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111">
-        <v>129</v>
-      </c>
-      <c r="C111">
-        <v>129</v>
-      </c>
-      <c r="G111" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112">
-        <v>130</v>
-      </c>
-      <c r="C112">
-        <v>130</v>
-      </c>
-      <c r="G112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113">
-        <v>131</v>
-      </c>
-      <c r="C113">
-        <v>131</v>
-      </c>
-      <c r="G113" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B114">
-        <v>132</v>
-      </c>
-      <c r="C114">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B115">
-        <v>133</v>
-      </c>
-      <c r="C115">
-        <v>133</v>
-      </c>
-      <c r="G115" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B116">
-        <v>134</v>
-      </c>
-      <c r="C116">
-        <v>134</v>
-      </c>
-      <c r="G116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B117">
-        <v>135</v>
-      </c>
-      <c r="C117">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B118">
-        <v>136</v>
-      </c>
-      <c r="C118">
-        <v>136</v>
-      </c>
-      <c r="G118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119">
-        <v>137</v>
-      </c>
-      <c r="C119">
-        <v>137</v>
-      </c>
-      <c r="G119" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B120">
-        <v>138</v>
-      </c>
-      <c r="C120">
-        <v>138</v>
-      </c>
-      <c r="G120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B121">
-        <v>139</v>
-      </c>
-      <c r="C121">
-        <v>139</v>
-      </c>
-      <c r="G121" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122">
-        <v>140</v>
-      </c>
-      <c r="C122">
-        <v>140</v>
-      </c>
-      <c r="G122" t="s">
-        <v>96</v>
+      <c r="B123">
+        <v>1327772</v>
+      </c>
+      <c r="C123">
+        <v>1327772</v>
+      </c>
+      <c r="H123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124">
+        <v>1323974</v>
+      </c>
+      <c r="C124">
+        <v>1323974</v>
+      </c>
+      <c r="H124" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:D70">
-    <sortCondition ref="B56:B70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:D72">
+    <sortCondition ref="B58:B72"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,14 +3215,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,10 +3242,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -3315,31 +3261,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB9B97-8CD6-477C-BF5A-531D8ED8746F}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T41"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>81</v>
@@ -3366,31 +3314,28 @@
         <v>81</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>83</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D2" s="19" t="s">
         <v>87</v>
       </c>
@@ -3398,19 +3343,19 @@
         <v>87</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>148</v>
+      <c r="H2" s="20">
+        <v>1250</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>89</v>
@@ -3422,42 +3367,39 @@
         <v>100</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="25">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1260</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>87</v>
@@ -3466,28 +3408,25 @@
         <v>89</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="U3" s="19">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D4" s="19" t="s">
         <v>89</v>
       </c>
@@ -3495,13 +3434,13 @@
         <v>89</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>150</v>
+      <c r="H4" s="20">
+        <v>1279</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>89</v>
@@ -3510,24 +3449,21 @@
         <v>106</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="U4" s="25">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>87</v>
@@ -3541,35 +3477,32 @@
       <c r="G5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>151</v>
+      <c r="H5" s="20">
+        <v>4018</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>89</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="19">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D6" s="19" t="s">
         <v>87</v>
       </c>
@@ -3577,40 +3510,37 @@
         <v>87</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>152</v>
+      <c r="H6" s="20">
+        <v>1259</v>
       </c>
       <c r="P6" s="21" t="s">
         <v>89</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="25">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D7" s="19" t="s">
         <v>87</v>
       </c>
@@ -3618,40 +3548,37 @@
         <v>87</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>153</v>
+      <c r="H7" s="20">
+        <v>8065</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>89</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U7" s="19">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D8" s="19" t="s">
         <v>89</v>
       </c>
@@ -3659,40 +3586,37 @@
         <v>89</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>154</v>
+      <c r="H8" s="20">
+        <v>1221479</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>89</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="U8" s="25">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D9" s="19" t="s">
         <v>89</v>
       </c>
@@ -3700,40 +3624,37 @@
         <v>89</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>155</v>
+      <c r="H9" s="20">
+        <v>19977</v>
       </c>
       <c r="P9" s="19" t="s">
         <v>89</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="U9" s="19">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -3741,40 +3662,37 @@
         <v>87</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>156</v>
+      <c r="H10" s="20">
+        <v>15251</v>
       </c>
       <c r="P10" s="19" t="s">
         <v>89</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="25">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="D11" s="21" t="s">
         <v>87</v>
       </c>
@@ -3782,39 +3700,36 @@
         <v>87</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>157</v>
+      <c r="H11" s="22">
+        <v>1251</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="U11" s="19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>87</v>
@@ -3828,34 +3743,31 @@
       <c r="G12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>158</v>
+      <c r="H12" s="20">
+        <v>17464</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="T12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="U12" s="25">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>89</v>
@@ -3869,35 +3781,32 @@
       <c r="G13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>159</v>
+      <c r="H13" s="20">
+        <v>19423</v>
       </c>
       <c r="P13" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="S13" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="U13" s="19">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T13" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -3905,40 +3814,37 @@
         <v>87</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>160</v>
+      <c r="H14" s="20">
+        <v>1327766</v>
       </c>
       <c r="P14" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" s="25">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="D15" s="21" t="s">
         <v>89</v>
       </c>
@@ -3946,39 +3852,36 @@
         <v>89</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>161</v>
+      <c r="H15" s="22">
+        <v>1322374</v>
       </c>
       <c r="P15" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" s="19">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>89</v>
@@ -3992,34 +3895,31 @@
       <c r="G16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="U16" s="25">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16" s="22">
+        <v>4040</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>87</v>
@@ -4033,34 +3933,31 @@
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>132</v>
+      <c r="H17" s="20">
+        <v>1322278</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="U17" s="19">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>89</v>
@@ -4072,36 +3969,33 @@
         <v>106</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>164</v>
+        <v>142</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1322352</v>
       </c>
       <c r="P18" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" s="25">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>89</v>
@@ -4115,34 +4009,31 @@
       <c r="G19" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>165</v>
+      <c r="H19" s="20">
+        <v>14226</v>
       </c>
       <c r="P19" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U19" s="19">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>87</v>
@@ -4156,34 +4047,31 @@
       <c r="G20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>166</v>
+      <c r="H20" s="20">
+        <v>1247</v>
       </c>
       <c r="P20" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="T20" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" s="25">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>87</v>
@@ -4197,35 +4085,32 @@
       <c r="G21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>167</v>
+      <c r="H21" s="20">
+        <v>1325094</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="U21" s="19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D22" s="19" t="s">
         <v>89</v>
       </c>
@@ -4233,40 +4118,37 @@
         <v>89</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>168</v>
+      <c r="H22" s="20">
+        <v>18861</v>
       </c>
       <c r="P22" s="19" t="s">
         <v>87</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="U22" s="25">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" s="19" t="s">
         <v>89</v>
       </c>
@@ -4274,33 +4156,36 @@
         <v>89</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>169</v>
+      <c r="H23" s="20">
+        <v>15278</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U23" s="19">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>87</v>
@@ -4314,29 +4199,32 @@
       <c r="G24" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="U24" s="25">
+      <c r="H24" s="20">
+        <v>1326896</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D25" s="19" t="s">
         <v>87</v>
       </c>
@@ -4344,33 +4232,30 @@
         <v>87</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T25" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="U25" s="19">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H25" s="20">
+        <v>1326946</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>89</v>
@@ -4384,28 +4269,27 @@
       <c r="G26" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="U26" s="25">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H26" s="20">
+        <v>1326995</v>
+      </c>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="S26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>89</v>
@@ -4419,63 +4303,57 @@
       <c r="G27" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>173</v>
+      <c r="H27" s="20">
+        <v>1323946</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="U27" s="19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="C28" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>174</v>
+      <c r="D28" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="25">
+        <v>15276</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="U28" s="25">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>87</v>
@@ -4489,29 +4367,26 @@
       <c r="G29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>175</v>
+      <c r="H29" s="20">
+        <v>1327885</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="U29" s="19">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D30" s="19" t="s">
         <v>87</v>
       </c>
@@ -4519,33 +4394,30 @@
         <v>87</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>176</v>
+      <c r="H30" s="20">
+        <v>1327903</v>
       </c>
       <c r="S30" s="19" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="U30" s="25">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>87</v>
@@ -4559,29 +4431,26 @@
       <c r="G31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>177</v>
+      <c r="H31" s="20">
+        <v>1327920</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="U31" s="19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D32" s="19" t="s">
         <v>89</v>
       </c>
@@ -4589,34 +4458,31 @@
         <v>89</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="S32" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="T32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="U32" s="25">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H32" s="20">
+        <v>8084</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="T32" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D33" s="19" t="s">
         <v>87</v>
       </c>
@@ -4624,33 +4490,30 @@
         <v>87</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>179</v>
+      <c r="H33" s="20">
+        <v>1329412</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="U33" s="19">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>89</v>
@@ -4664,29 +4527,26 @@
       <c r="G34" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>180</v>
+      <c r="H34" s="20">
+        <v>1329309</v>
       </c>
       <c r="S34" s="19" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="T34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="U34" s="25">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="D35" s="21" t="s">
         <v>89</v>
       </c>
@@ -4694,34 +4554,31 @@
         <v>89</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>181</v>
+      <c r="H35" s="22">
+        <v>1325160</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="U35" s="19">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="D36" s="19" t="s">
         <v>87</v>
       </c>
@@ -4729,209 +4586,188 @@
         <v>87</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>182</v>
+      <c r="H36" s="20">
+        <v>9692</v>
       </c>
       <c r="S36" s="19" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="U36" s="25">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="S37" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="U37" s="19">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37">
+        <v>21012</v>
+      </c>
+      <c r="S37" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="T37" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="S38" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="U38" s="25">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38">
+        <v>1323967</v>
+      </c>
+      <c r="S38" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="T38" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="S39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T39" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U39" s="19">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>1325159</v>
+      </c>
+      <c r="S39" t="s">
+        <v>156</v>
+      </c>
+      <c r="T39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="U40" s="25">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40">
+        <v>1327772</v>
+      </c>
+      <c r="S40" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="S41" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T41" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="U41" s="19">
-        <v>140</v>
+      <c r="H41">
+        <v>1323974</v>
+      </c>
+      <c r="S41" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="T41" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:T42">
-    <sortCondition ref="S2:S42"/>
-    <sortCondition ref="T2:T42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:T43">
+    <sortCondition ref="S2:S43"/>
+    <sortCondition ref="T2:T43"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G41">
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:H1">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4939,43 +4775,15 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14854850-6BA6-4627-930A-C62F91451C5A}</x14:id>
+          <x14:id>{DB9D37E1-A364-4275-8449-8DAD1ECBB66D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G36">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E91DBBBE-685B-4513-8D36-BDEA48AF88E9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:N1">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2BA5D731-FB50-4EF1-A091-C6CCA2DE6262}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -4984,15 +4792,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B874CB4F-4F19-4334-8ED7-6DB91CAE5264}</x14:id>
+          <x14:id>{07EF50BB-8F8E-4898-9FEE-5E95A99C24C5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q1048576 Q1:Q22">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  <conditionalFormatting sqref="M1:N1">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52268026-9DA8-43A7-B3B6-FEFB5573A70F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:U1">
+  <conditionalFormatting sqref="P1:Q1">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -5001,31 +4820,46 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FB123AE3-F26B-4D3C-8F08-2C49D11CB4C3}</x14:id>
+          <x14:id>{088F08D7-C92E-47B2-94B1-230C24E1A277}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T41 U2 U4 U6 U8 U10 U12 U14 U16 U18 U20 U22 U24 U26 U28 U30 U32 U34 U36 U38 U40">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="Q2:Q24">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576 U2 U4 U6 U8 U10 U12 U14 U16 U18 U20 U22 U24 U26 U28 U30 U32 U34 U36 U38 U40">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="S1:T1">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF34FE26-C8E2-4A13-9AF0-3D460101E8B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T36">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{14854850-6BA6-4627-930A-C62F91451C5A}">
+          <x14:cfRule type="dataBar" id="{DB9D37E1-A364-4275-8449-8DAD1ECBB66D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5036,7 +4870,7 @@
           <xm:sqref>B1:H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E91DBBBE-685B-4513-8D36-BDEA48AF88E9}">
+          <x14:cfRule type="dataBar" id="{07EF50BB-8F8E-4898-9FEE-5E95A99C24C5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5047,7 +4881,7 @@
           <xm:sqref>K1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2BA5D731-FB50-4EF1-A091-C6CCA2DE6262}">
+          <x14:cfRule type="dataBar" id="{52268026-9DA8-43A7-B3B6-FEFB5573A70F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5058,7 +4892,7 @@
           <xm:sqref>M1:N1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B874CB4F-4F19-4334-8ED7-6DB91CAE5264}">
+          <x14:cfRule type="dataBar" id="{088F08D7-C92E-47B2-94B1-230C24E1A277}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5069,7 +4903,7 @@
           <xm:sqref>P1:Q1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FB123AE3-F26B-4D3C-8F08-2C49D11CB4C3}">
+          <x14:cfRule type="dataBar" id="{DF34FE26-C8E2-4A13-9AF0-3D460101E8B8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5077,7 +4911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S1:U1</xm:sqref>
+          <xm:sqref>S1:T1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
